--- a/medicine/Mort/Cimetière_d'Auteuil/Cimetière_d'Auteuil.xlsx
+++ b/medicine/Mort/Cimetière_d'Auteuil/Cimetière_d'Auteuil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27Auteuil</t>
+          <t>Cimetière_d'Auteuil</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière d'Auteuil est un cimetière parisien, situé dans le 16e arrondissement.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27Auteuil</t>
+          <t>Cimetière_d'Auteuil</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est situé au no 57 de la rue Claude-Lorrain dans le 16e arrondissement[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est situé au no 57 de la rue Claude-Lorrain dans le 16e arrondissement.
 Le quartier est desservi par la ligne 9 à la station Exelmans.
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27Auteuil</t>
+          <t>Cimetière_d'Auteuil</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le premier cimetière d'Auteuil était associé à l'église d’Auteuil. Cette dernière est édifiée dans le village d'Auteuil au XIe siècle, puis reconstruite au XIVe siècle et plusieurs fois agrandie par la suite. Il ne reste comme vestige de l'ancien cimetière que l'obélisque d'Aguesseau, que l'on peut voir de nos jours sur la place devant l'église. Devenu trop petit, l'ancien cimetière est transféré à son emplacement actuel en 1793[2], sur un terrain offert par M. Le Couteulx, lequel désire que le futur espace funéraire ressemble à « une réunion d'arbres faisant ornement dans la plaine ». Le maire d'Auteuil est alors M. Benoît ; créateur du cimetière, il y est inhumé en 1816[1].
-Inauguré officiellement en 1800, agrandi en 1843 et 1847, il est rattaché à la Ville de Paris lors de l'absorption de la commune d'Auteuil en 1860. Depuis 1870, il n'accueille que des concessions centenaires ou perpétuelles[1].
-Lors de la Commune de Paris, le cimetière reçoit des obus qui abîment notamment la tombe de Madame Helvétius[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le premier cimetière d'Auteuil était associé à l'église d’Auteuil. Cette dernière est édifiée dans le village d'Auteuil au XIe siècle, puis reconstruite au XIVe siècle et plusieurs fois agrandie par la suite. Il ne reste comme vestige de l'ancien cimetière que l'obélisque d'Aguesseau, que l'on peut voir de nos jours sur la place devant l'église. Devenu trop petit, l'ancien cimetière est transféré à son emplacement actuel en 1793, sur un terrain offert par M. Le Couteulx, lequel désire que le futur espace funéraire ressemble à « une réunion d'arbres faisant ornement dans la plaine ». Le maire d'Auteuil est alors M. Benoît ; créateur du cimetière, il y est inhumé en 1816.
+Inauguré officiellement en 1800, agrandi en 1843 et 1847, il est rattaché à la Ville de Paris lors de l'absorption de la commune d'Auteuil en 1860. Depuis 1870, il n'accueille que des concessions centenaires ou perpétuelles.
+Lors de la Commune de Paris, le cimetière reçoit des obus qui abîment notamment la tombe de Madame Helvétius.
 Malgré sa petite taille de 72 ares, le cimetière contient un nombre considérable de tombes et de chapelles où sont inhumées des personnalités notables.
 			Entrée du cimetière d'où l'on aperçoit le buste d'Adolphe Yvon.
 			Plaque à l'entrée commémorant la fondation du cimetière en 1800.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27Auteuil</t>
+          <t>Cimetière_d'Auteuil</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,6 +597,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
